--- a/equity.xlsx
+++ b/equity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.071428571428571</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.571428571428571</v>
+        <v>2.071428571428572</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.071428571428572</v>
+        <v>2.571428571428572</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.571428571428572</v>
+        <v>2.785714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.785714285714286</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>3.214285714285714</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>3.214285714285714</v>
+        <v>3.428571428571428</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.428571428571428</v>
+        <v>3.642857142857143</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>3.642857142857143</v>
+        <v>3.857142857142857</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>-2</v>
       </c>
       <c r="D11" t="n">
-        <v>3.857142857142857</v>
+        <v>3.785714285714286</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>-3</v>
       </c>
       <c r="D12" t="n">
-        <v>3.785714285714286</v>
+        <v>3.714285714285714</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.714285714285714</v>
+        <v>3.642857142857143</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>3.642857142857143</v>
+        <v>3.571428571428572</v>
       </c>
     </row>
     <row r="15">
@@ -854,6 +854,20 @@
       </c>
       <c r="D30" t="n">
         <v>3.571428571428572</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.785714285714286</v>
       </c>
     </row>
   </sheetData>
